--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,21 +443,1372 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>CANA.CA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>COMI.CA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>QNBA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SAUD.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HDBK.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FIAT.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CIEB.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EXPA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ADIB.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ISMQ.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PACH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MFPC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ABUK.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>IRAX.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EGAL.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EGCH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SKPC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EFIC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ATQA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MICH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>KZPC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASCM.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ALUM.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SMFR.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MEPA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SIPC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SPMD.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NINH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ISPH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EFIC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MCRO.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RMDA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PHAR.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BIOC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CLHO.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>EEII.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DTPP.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>KDRI.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>GDWA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AUTO.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ELEC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SWDY.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RAYA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>OIH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MPRC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>FWRY.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>EFIH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MAAL.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>GOCO.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>EGAS.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MMAT.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>AELR.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>AIFI.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>OBRI.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>RREI.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TANM.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ICID.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>REAC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>AICO.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>AJWA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SNFC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NEDA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>KABO.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ISMA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>POUL.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SUGR.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>EFID.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>JUFO.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>OLFI.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>DOMT.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>GSSC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>IFAP.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MTIE.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MFSC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CSAG.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ALCN.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>UASG.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ETRS.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ACRO.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>GTWL.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ACGC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>EDBM.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>EIUD.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>UNIT.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>EGBE.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ETEL.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CIRA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CNFN.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>OFH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>EKHO.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>EASB.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CICH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>BTFH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>PRMH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ASPI.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ORAS.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>WKOL.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>GGCC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SCFM.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ICID.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>GOCO.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>MBSC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>RMDA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>OLFI.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ACAMD.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>EFIC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>RUBX.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ADIB.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ALCN.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>EGS7.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SVCE.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ZMID.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>EKHOA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>AIFI.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ASHC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ELKA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>EFID.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>UNIP.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>TMGH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>COMI.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>IDRE.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>EGBE.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>PRCL.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ELSH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CCAP.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>UASG.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SIPD.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ADCI.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>MBSC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>CERA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>BTFH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ZMID.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ATLC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>PHAR.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>CIRG.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>UNIT.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>EFID.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>EMFD.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>AALR.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>NEDA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ETRS.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ACGC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>AIVC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>EGCH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>EIUD.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>IRAX.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>GHGA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SUGR.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ABUK.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>FAIT.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>DAPH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>EASB.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>RREI.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ASPI.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SVCE.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ETRS.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ZMID.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ACAM.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>HELI.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>EGCH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ABUK.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>MTIE.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>EGAL.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ODIN.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>RUBX.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ALUM.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ELAR.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ISMA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>UNIP.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>EGCH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>FWRY.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>KWIN.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>EFID.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>MCRO.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>CNFN.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>MICH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ORWE.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>AFDI.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>PRCL.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>CICH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ALEX.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>GSSC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>POUL.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SVCE.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>WKOL.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>GGCC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>EFIC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>BTFH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>PACH.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ZMID.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>MGHE.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>MIPC.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>AUTO.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>EGS3.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>MENA.CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>MNHD.CA</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,46 +436,60 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Qualified Stocks</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Unqualified Stocks</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Lost Stocks</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
         <is>
           <t>AAPL</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
         <is>
           <t>MSFT</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
         <is>
           <t>TSLA</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
